--- a/artfynd/A 60587-2025 artfynd.xlsx
+++ b/artfynd/A 60587-2025 artfynd.xlsx
@@ -1373,7 +1373,7 @@
         <v>130008210</v>
       </c>
       <c r="B8" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
